--- a/data.xlsx
+++ b/data.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holdb\Documents\CPSC-481-Project-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96495E40-11B8-41CF-AC31-5BA517401ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -22,324 +38,303 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prereq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Division Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 120A+L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to Programming Lecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 121A+L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object-Oriented Programming Lecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 223x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{x = C/Java/C#/Python/Swift} Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 131,MATH 170A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Organization and Assembly Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cybersecurity Foundations and Principles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Division Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Ethics in Computing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compilers and Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Structures &amp; Database Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 131,MATH 170A,MATH 150A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating Systems Concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foundations of Software Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Communications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 335,MATH 338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undergraduate Seminar in CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPSC 491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senior Capstone Project in CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH 150A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculus 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH 150B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculus 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH 170A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math Structures 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH 170B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math Structures 2</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Prereq</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Lower Division Core</t>
+  </si>
+  <si>
+    <t>CPSC 120A+L</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Intro to Programming Lecture</t>
+  </si>
+  <si>
+    <t>CPSC 121A+L</t>
+  </si>
+  <si>
+    <t>Object-Oriented Programming Lecture</t>
+  </si>
+  <si>
+    <t>CPSC 131</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>CPSC 223x</t>
+  </si>
+  <si>
+    <t>{x = C/Java/C#/Python/Swift} Programming</t>
+  </si>
+  <si>
+    <t>CPSC 240</t>
+  </si>
+  <si>
+    <t>CPSC 131,MATH 170A</t>
+  </si>
+  <si>
+    <t>Computer Organization and Assembly Language</t>
+  </si>
+  <si>
+    <t>CPSC 253</t>
+  </si>
+  <si>
+    <t>Cybersecurity Foundations and Principles</t>
+  </si>
+  <si>
+    <t>Upper Division Core</t>
+  </si>
+  <si>
+    <t>CPSC 315</t>
+  </si>
+  <si>
+    <t>Professional Ethics in Computing</t>
+  </si>
+  <si>
+    <t>CPSC 323</t>
+  </si>
+  <si>
+    <t>Compilers and Languages</t>
+  </si>
+  <si>
+    <t>CPSC 332</t>
+  </si>
+  <si>
+    <t>File Structures &amp; Database Systems</t>
+  </si>
+  <si>
+    <t>CPSC 335</t>
+  </si>
+  <si>
+    <t>CPSC 131,MATH 170A,MATH 150A</t>
+  </si>
+  <si>
+    <t>Algorithm Engineering</t>
+  </si>
+  <si>
+    <t>CPSC 351</t>
+  </si>
+  <si>
+    <t>Operating Systems Concepts</t>
+  </si>
+  <si>
+    <t>CPSC 362</t>
+  </si>
+  <si>
+    <t>Foundations of Software Engineering</t>
+  </si>
+  <si>
+    <t>CPSC 471</t>
+  </si>
+  <si>
+    <t>Computer Communications</t>
+  </si>
+  <si>
+    <t>CPSC 481</t>
+  </si>
+  <si>
+    <t>CPSC 335,MATH 338</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>CPSC 490</t>
+  </si>
+  <si>
+    <t>Undergraduate Seminar in CS</t>
+  </si>
+  <si>
+    <t>CPSC 491</t>
+  </si>
+  <si>
+    <t>Senior Capstone Project in CS</t>
+  </si>
+  <si>
+    <t>Math Requirements</t>
+  </si>
+  <si>
+    <t>MATH 150A</t>
+  </si>
+  <si>
+    <t>Calculus 1</t>
+  </si>
+  <si>
+    <t>MATH 150B</t>
+  </si>
+  <si>
+    <t>Calculus 2</t>
+  </si>
+  <si>
+    <t>MATH 170A</t>
+  </si>
+  <si>
+    <t>Math Structures 1</t>
+  </si>
+  <si>
+    <t>MATH 170B</t>
+  </si>
+  <si>
+    <t>Math Structures 2</t>
   </si>
   <si>
     <t xml:space="preserve">MATH 338 </t>
   </si>
   <si>
-    <t xml:space="preserve">Statistics Applied to Natural Sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Electives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Elective 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Development with Open Source Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Elective 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Front-End Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Elective 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cryptography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Elective 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to Data Science and Big Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Elective 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to Game Design and Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Education 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science/Math Elective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SME 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science/Math Elective 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SME 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science/Math Elective 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SME 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science/Math Elective 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graduation Requirement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graduation Requirement 1</t>
+    <t>Statistics Applied to Natural Sciences</t>
+  </si>
+  <si>
+    <t>CS Electives</t>
+  </si>
+  <si>
+    <t>CS Elective 1</t>
+  </si>
+  <si>
+    <t>Software Development with Open Source Systems</t>
+  </si>
+  <si>
+    <t>CS Elective 2</t>
+  </si>
+  <si>
+    <t>Web Front-End Engineering</t>
+  </si>
+  <si>
+    <t>CS Elective 3</t>
+  </si>
+  <si>
+    <t>Cryptography</t>
+  </si>
+  <si>
+    <t>CS Elective 4</t>
+  </si>
+  <si>
+    <t>Intro to Data Science and Big Data</t>
+  </si>
+  <si>
+    <t>CS Elective 5</t>
+  </si>
+  <si>
+    <t>Intro to Game Design and Production</t>
+  </si>
+  <si>
+    <t>General Education</t>
+  </si>
+  <si>
+    <t>GE 1</t>
+  </si>
+  <si>
+    <t>General Education 1</t>
+  </si>
+  <si>
+    <t>GE 2</t>
+  </si>
+  <si>
+    <t>General Education 2</t>
+  </si>
+  <si>
+    <t>GE 3</t>
+  </si>
+  <si>
+    <t>General Education 3</t>
+  </si>
+  <si>
+    <t>GE 4</t>
+  </si>
+  <si>
+    <t>General Education 4</t>
+  </si>
+  <si>
+    <t>GE 5</t>
+  </si>
+  <si>
+    <t>General Education 5</t>
+  </si>
+  <si>
+    <t>GE 6</t>
+  </si>
+  <si>
+    <t>General Education 6</t>
+  </si>
+  <si>
+    <t>GE 7</t>
+  </si>
+  <si>
+    <t>General Education 7</t>
+  </si>
+  <si>
+    <t>GE 8</t>
+  </si>
+  <si>
+    <t>General Education 8</t>
+  </si>
+  <si>
+    <t>Science/Math Elective</t>
+  </si>
+  <si>
+    <t>SME 1</t>
+  </si>
+  <si>
+    <t>Science/Math Elective 1</t>
+  </si>
+  <si>
+    <t>SME 2</t>
+  </si>
+  <si>
+    <t>Science/Math Elective 2</t>
+  </si>
+  <si>
+    <t>SME 3</t>
+  </si>
+  <si>
+    <t>Science/Math Elective 3</t>
+  </si>
+  <si>
+    <t>GR 1</t>
+  </si>
+  <si>
+    <t>Graduation Requirement 1</t>
+  </si>
+  <si>
+    <t>Graduation Requirement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -364,7 +359,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -372,61 +367,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -485,33 +443,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.25"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,972 +819,967 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <f aca="false">IF(D2="None", 4, 4 - (LEN(D2) - LEN(SUBSTITUTE(D2, ",", "")) + 1))+3</f>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F7" si="0">IF(D2="None", 4, 4 - (LEN(D2) - LEN(SUBSTITUTE(D2, ",", "")) + 1))+3</f>
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f aca="false">B2</f>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>B2</f>
         <v>CPSC 120A+L</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <f aca="false">IF(D3="None", 4, 4 - (LEN(D3) - LEN(SUBSTITUTE(D3, ",", "")) + 1))+3</f>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f aca="false">B3</f>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>B3</f>
         <v>CPSC 121A+L</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <f aca="false">IF(D4="None", 4, 4 - (LEN(D4) - LEN(SUBSTITUTE(D4, ",", "")) + 1))+3</f>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f aca="false">B4</f>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>B4</f>
         <v>CPSC 131</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <f aca="false">IF(D5="None", 4, 4 - (LEN(D5) - LEN(SUBSTITUTE(D5, ",", "")) + 1))+3</f>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <f aca="false">IF(D6="None", 4, 4 - (LEN(D6) - LEN(SUBSTITUTE(D6, ",", "")) + 1))+3</f>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <f aca="false">IF(D7="None", 4, 4 - (LEN(D7) - LEN(SUBSTITUTE(D7, ",", "")) + 1))+3</f>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f aca="false">B4</f>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>B4</f>
         <v>CPSC 131</v>
       </c>
-      <c r="E8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <f aca="false">IF(D8="None", 4, 4 - (LEN(D8) - LEN(SUBSTITUTE(D8, ",", "")) + 1))+1</f>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F22" si="1">IF(D8="None", 4, 4 - (LEN(D8) - LEN(SUBSTITUTE(D8, ",", "")) + 1))+1</f>
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <f aca="false">IF(D9="None", 4, 4 - (LEN(D9) - LEN(SUBSTITUTE(D9, ",", "")) + 1))+1</f>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <f aca="false">IF(D10="None", 4, 4 - (LEN(D10) - LEN(SUBSTITUTE(D10, ",", "")) + 1))+1</f>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <f aca="false">IF(D11="None", 4, 4 - (LEN(D11) - LEN(SUBSTITUTE(D11, ",", "")) + 1))+1</f>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="n">
-        <f aca="false">IF(D12="None", 4, 4 - (LEN(D12) - LEN(SUBSTITUTE(D12, ",", "")) + 1))+1</f>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="3" t="n">
-        <f aca="false">IF(D13="None", 4, 4 - (LEN(D13) - LEN(SUBSTITUTE(D13, ",", "")) + 1))+1</f>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <f aca="false">IF(D14="None", 4, 4 - (LEN(D14) - LEN(SUBSTITUTE(D14, ",", "")) + 1))+1</f>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <f aca="false">IF(D15="None", 4, 4 - (LEN(D15) - LEN(SUBSTITUTE(D15, ",", "")) + 1))+1</f>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="n">
-        <f aca="false">IF(D16="None", 4, 4 - (LEN(D16) - LEN(SUBSTITUTE(D16, ",", "")) + 1))+1</f>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <f aca="false">IF(D17="None", 4, 4 - (LEN(D17) - LEN(SUBSTITUTE(D17, ",", "")) + 1))+1</f>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <f aca="false">IF(D18="None", 4, 4 - (LEN(D18) - LEN(SUBSTITUTE(D18, ",", "")) + 1))+1</f>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="3" t="n">
-        <f aca="false">IF(D19="None", 4, 4 - (LEN(D19) - LEN(SUBSTITUTE(D19, ",", "")) + 1))+1</f>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3">
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="3" t="n">
-        <f aca="false">IF(D20="None", 4, 4 - (LEN(D20) - LEN(SUBSTITUTE(D20, ",", "")) + 1))+1</f>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <f aca="false">IF(D21="None", 4, 4 - (LEN(D21) - LEN(SUBSTITUTE(D21, ",", "")) + 1))+1</f>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="3" t="n">
-        <f aca="false">IF(D22="None", 4, 4 - (LEN(D22) - LEN(SUBSTITUTE(D22, ",", "")) + 1))+1</f>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <f aca="false">IF(D23="None", 4, 4 - (LEN(D23) - LEN(SUBSTITUTE(D23, ",", "")) + 1))+2</f>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f>IF(D23="None", 4, 4 - (LEN(D23) - LEN(SUBSTITUTE(D23, ",", "")) + 1))+2</f>
         <v>6</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <f aca="false">IF(D24="None", 4, 4 - (LEN(D24) - LEN(SUBSTITUTE(D24, ",", "")) + 1))+2</f>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f>IF(D24="None", 4, 4 - (LEN(D24) - LEN(SUBSTITUTE(D24, ",", "")) + 1))+2</f>
         <v>6</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <f aca="false">IF(D25="None", 4, 4 - (LEN(D25) - LEN(SUBSTITUTE(D25, ",", "")) + 1))+2</f>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f>IF(D25="None", 4, 4 - (LEN(D25) - LEN(SUBSTITUTE(D25, ",", "")) + 1))+2</f>
         <v>6</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <f aca="false">IF(D26="None", 4, 4 - (LEN(D26) - LEN(SUBSTITUTE(D26, ",", "")) + 1))+2</f>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <f>IF(D26="None", 4, 4 - (LEN(D26) - LEN(SUBSTITUTE(D26, ",", "")) + 1))+2</f>
         <v>6</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <f aca="false">IF(D27="None", 4, 4 - (LEN(D27) - LEN(SUBSTITUTE(D27, ",", "")) + 1))+2</f>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f>IF(D27="None", 4, 4 - (LEN(D27) - LEN(SUBSTITUTE(D27, ",", "")) + 1))+2</f>
         <v>6</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <f aca="false">IF(D28="None", 4, 4 - (LEN(D28) - LEN(SUBSTITUTE(D28, ",", "")) + 1))+3</f>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ref="F28:F39" si="2">IF(D28="None", 4, 4 - (LEN(D28) - LEN(SUBSTITUTE(D28, ",", "")) + 1))+3</f>
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="3">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <f aca="false">IF(D29="None", 4, 4 - (LEN(D29) - LEN(SUBSTITUTE(D29, ",", "")) + 1))+3</f>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3">
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <f aca="false">IF(D30="None", 4, 4 - (LEN(D30) - LEN(SUBSTITUTE(D30, ",", "")) + 1))+3</f>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <f aca="false">IF(D31="None", 4, 4 - (LEN(D31) - LEN(SUBSTITUTE(D31, ",", "")) + 1))+3</f>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <f aca="false">IF(D32="None", 4, 4 - (LEN(D32) - LEN(SUBSTITUTE(D32, ",", "")) + 1))+3</f>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <f aca="false">IF(D33="None", 4, 4 - (LEN(D33) - LEN(SUBSTITUTE(D33, ",", "")) + 1))+3</f>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <f aca="false">IF(D34="None", 4, 4 - (LEN(D34) - LEN(SUBSTITUTE(D34, ",", "")) + 1))+3</f>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <f aca="false">IF(D35="None", 4, 4 - (LEN(D35) - LEN(SUBSTITUTE(D35, ",", "")) + 1))+3</f>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <f aca="false">IF(D36="None", 4, 4 - (LEN(D36) - LEN(SUBSTITUTE(D36, ",", "")) + 1))+3</f>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="3">
         <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <f aca="false">IF(D37="None", 4, 4 - (LEN(D37) - LEN(SUBSTITUTE(D37, ",", "")) + 1))+3</f>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <f aca="false">IF(D38="None", 4, 4 - (LEN(D38) - LEN(SUBSTITUTE(D38, ",", "")) + 1))+3</f>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <f aca="false">IF(D39="None", 4, 4 - (LEN(D39) - LEN(SUBSTITUTE(D39, ",", "")) + 1))+3</f>
-        <v>7</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="4"/>
+    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holdb\Documents\CPSC-481-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96495E40-11B8-41CF-AC31-5BA517401ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F328EA81-E02E-49B7-8DCE-781201EA2F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>Math Structures 2</t>
   </si>
   <si>
-    <t xml:space="preserve">MATH 338 </t>
-  </si>
-  <si>
     <t>Statistics Applied to Natural Sciences</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>Graduation Requirement</t>
+  </si>
+  <si>
+    <t>MATH 338</t>
   </si>
 </sst>
 </file>
@@ -764,8 +764,8 @@
   <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1308,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -1324,15 +1324,15 @@
         <v>4</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -1348,15 +1348,15 @@
         <v>6</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -1372,15 +1372,15 @@
         <v>6</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -1396,15 +1396,15 @@
         <v>6</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -1420,15 +1420,15 @@
         <v>6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
@@ -1444,15 +1444,15 @@
         <v>6</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -1468,15 +1468,15 @@
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -1492,15 +1492,15 @@
         <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -1516,15 +1516,15 @@
         <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
@@ -1540,15 +1540,15 @@
         <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
@@ -1564,15 +1564,15 @@
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -1588,15 +1588,15 @@
         <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -1612,15 +1612,15 @@
         <v>7</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -1636,15 +1636,15 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
@@ -1660,15 +1660,15 @@
         <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -1684,15 +1684,15 @@
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
@@ -1708,15 +1708,15 @@
         <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
@@ -1732,7 +1732,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
